--- a/35-Auto Skill Triggers 自动技能触发器.xlsx
+++ b/35-Auto Skill Triggers 自动技能触发器.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="插件参数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
   <si>
     <t>Skill Trigger    技能触发</t>
   </si>
@@ -35,6 +48,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">自动触发
 </t>
     </r>
@@ -358,6 +378,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当发生 基本攻击 ，并且当前活跃的战斗人员在用户的同盟团队中时，触发技能。
 </t>
     </r>
@@ -641,21 +668,101 @@
   <si>
     <t>&lt;Auto Trigger: Element Ice Opponents&gt;</t>
   </si>
+  <si>
+    <t>General Settings</t>
+  </si>
+  <si>
+    <t>这些是用于此插件的常规设置。这些主要用于限制每个Battler每回合可以发生的自动技能触发次数（这意味着战斗中的每个成员都有单独的限制，而不是作为一个整体）。一般来说，我们建议施加限制，如MP成本、TP成本、冷却等。</t>
+  </si>
+  <si>
+    <t>这是因为当自动技能触发器不受控制并对所有内容做出反应时，可能会导致失控效应，玩家不再输入任何内容。相反，最好对自动触发器的数量加以限制（即使很高），以防止这种情况发生。</t>
+  </si>
+  <si>
+    <t>如果你仍然想要看似无限的自动技能触发器，请将数字更改为100左右，但请记住，当已经提到发生这种情况的风险时，我们不对失控效应负责。</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Limit Per Turn (Turn-Based):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每回合限制（基于回合）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·仅限回合制
+·每个battler每回合触发多少次？
+·数字越高，自动触发失控的风险越高。</t>
+    </r>
+  </si>
+  <si>
+    <t>Limit Per Turn (TPB-Based):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每回合限制（基于TPB）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·仅限TPB
+·每个battler每回合触发多少次？
+·数字越高，自动触发失控的风险越高。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -691,42 +798,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -743,6 +814,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -752,41 +862,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,7 +915,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +956,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,49 +965,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,121 +1127,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,21 +1180,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1104,6 +1212,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,225 +1285,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1682,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1694,12 +1835,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1710,10 +1851,10 @@
       </c>
     </row>
     <row r="3" ht="61.5" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1721,21 +1862,21 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -1757,7 +1898,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1832,7 +1973,7 @@
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1843,7 +1984,7 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1854,7 +1995,7 @@
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1865,7 +2006,7 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1876,7 +2017,7 @@
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1887,7 +2028,7 @@
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1898,7 +2039,7 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1909,7 +2050,7 @@
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1920,7 +2061,7 @@
       <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1931,7 +2072,7 @@
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1942,7 +2083,7 @@
       <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1953,7 +2094,7 @@
       <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1964,7 +2105,7 @@
       <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1975,7 +2116,7 @@
       <c r="B36" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1986,7 +2127,7 @@
       <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1997,7 +2138,7 @@
       <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2008,7 +2149,7 @@
       <c r="B40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2019,7 +2160,7 @@
       <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2030,7 +2171,7 @@
       <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2041,7 +2182,7 @@
       <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2052,7 +2193,7 @@
       <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2063,7 +2204,7 @@
       <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2074,7 +2215,7 @@
       <c r="B46" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2085,7 +2226,7 @@
       <c r="B47" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2157,7 +2298,7 @@
       <c r="A58" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2165,7 +2306,7 @@
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2173,7 +2314,7 @@
       <c r="A60" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2181,7 +2322,7 @@
       <c r="A61" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2189,7 +2330,7 @@
       <c r="A62" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2197,7 +2338,7 @@
       <c r="A63" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2205,7 +2346,7 @@
       <c r="A64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2213,7 +2354,7 @@
       <c r="A65" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2282,7 +2423,7 @@
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2356,14 +2497,97 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="9.00833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" ht="49.5" spans="1:3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="49.5" spans="1:3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
